--- a/eg4_time.xlsx
+++ b/eg4_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3A634-67A1-1740-A270-03F8B194646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8434BD24-8EBD-C947-B5FE-382C2A09C389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817EBE87-2CE1-004C-9478-04FC4CE6C5FA}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.3272042274475</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.4769694805145199</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.4780366420745801</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.8905718326568599</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -848,11 +848,11 @@
       </c>
       <c r="D17">
         <f ca="1">AVERAGE(OFFSET(D$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" t="e" cm="1">
+        <v>1</v>
+      </c>
+      <c r="E17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($E$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
+        <v>2.043195545673365</v>
       </c>
       <c r="F17">
         <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -903,14 +903,14 @@
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" t="e" cm="1">
+      <c r="Q17" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">STDEV(
   IF(
      OFFSET($D$2, (ROW()-$A$15)*4, 0, 4, 1)&lt;&gt;0,
      OFFSET($E$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>#DIV/0!</v>
+        <v>0.45227339264457611</v>
       </c>
       <c r="R17" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">STDEV(
